--- a/biology/Zoologie/Échiquier_de_Sicile/Échiquier_de_Sicile.xlsx
+++ b/biology/Zoologie/Échiquier_de_Sicile/Échiquier_de_Sicile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Sicile</t>
+          <t>Échiquier_de_Sicile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia pherusa
 L’Échiquier de Sicile (Melanargia pherusa) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Sicile</t>
+          <t>Échiquier_de_Sicile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melanargia pherusa a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833[1].
-Noms vernaculaires
-L'Échiquier de Sicile  se nomme Sicilian Marbled White en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia pherusa a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Sicile</t>
+          <t>Échiquier_de_Sicile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente sur le dessus un damier noir et blanc dans les aires distales, réduit au dessin des limites des damiers dans les aires basales. Les ocelles à l'apex des antérieures et en ligne aux postérieures sont peu visibles.
-Le revers dessine en noir les limites des damiers, et les ocelles y sont bien visibles.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier de Sicile  se nomme Sicilian Marbled White en anglais.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Sicile</t>
+          <t>Échiquier_de_Sicile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Plantes hôtes
-La chenille se nourrit de graminées[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente sur le dessus un damier noir et blanc dans les aires distales, réduit au dessin des limites des damiers dans les aires basales. Les ocelles à l'apex des antérieures et en ligne aux postérieures sont peu visibles.
+Le revers dessine en noir les limites des damiers, et les ocelles y sont bien visibles.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Sicile</t>
+          <t>Échiquier_de_Sicile</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,15 +625,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Échiquier de Sicile n'est présent qu'en Sicile[1]. Tout particulièrement dans la Riserva Naturale dello Zingaro.
-Biotope
-Il réside dans des lieux rocheux herbus.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier de Sicile n'est présent qu'en Sicile. Tout particulièrement dans la Riserva Naturale dello Zingaro.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux rocheux herbus.
+</t>
         </is>
       </c>
     </row>
